--- a/data/human/lsr1charactwoanhedonia.xlsx
+++ b/data/human/lsr1charactwoanhedonia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfrie\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB133DE-05D4-4891-869F-CF294827DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BEF3DF-4284-4CAB-ABE6-FCF32FCDA336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6660" windowWidth="29040" windowHeight="15720" xr2:uid="{9BA4CE3C-F350-459A-870F-023417E42010}"/>
+    <workbookView xWindow="2265" yWindow="240" windowWidth="24690" windowHeight="15690" xr2:uid="{9BA4CE3C-F350-459A-870F-023417E42010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="288">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -1029,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,9 +1119,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,9 +1148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1191,7 +1188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1297,7 +1294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1439,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1449,30 +1446,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D686BC1-6B36-48F9-AF35-6AC090E66918}">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="5"/>
-    <col min="3" max="3" width="10.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="5"/>
-    <col min="5" max="5" width="9.7265625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="5"/>
+    <col min="3" max="3" width="10.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="5"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="5" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" style="5"/>
-    <col min="14" max="14" width="11.90625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
+    <col min="10" max="13" width="8.7109375" style="5"/>
+    <col min="14" max="14" width="11.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -1574,26 +1571,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="86" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="32" t="s">
+    <row r="3" spans="1:17" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1627,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1717,26 +1714,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="33" t="s">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -1770,7 +1767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1980,26 +1977,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="32" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -2033,7 +2030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>60</v>
       </c>
@@ -2086,26 +2083,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="32" t="s">
+    <row r="13" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -2139,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -2188,26 +2185,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="32" t="s">
+    <row r="15" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -2241,7 +2238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -2294,26 +2291,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="32" t="s">
+    <row r="17" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -2347,7 +2344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
@@ -2398,26 +2395,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="32" t="s">
+    <row r="19" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2451,7 +2448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>81</v>
       </c>
@@ -2502,26 +2499,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="32" t="s">
+    <row r="21" spans="1:17" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -2555,7 +2552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>83</v>
       </c>
@@ -2602,26 +2599,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="32" t="s">
+    <row r="23" spans="1:17" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -2655,7 +2652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>87</v>
       </c>
@@ -2706,26 +2703,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="32" t="s">
+    <row r="25" spans="1:17" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="15" t="s">
@@ -2759,7 +2756,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>93</v>
       </c>
@@ -2810,26 +2807,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="32" t="s">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="13" t="s">
@@ -2863,7 +2860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>98</v>
       </c>
@@ -2914,26 +2911,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="32" t="s">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="13" t="s">
@@ -2967,7 +2964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
@@ -3018,26 +3015,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="32" t="s">
+    <row r="31" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="13" t="s">
@@ -3071,7 +3068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>108</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
@@ -3226,26 +3223,26 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="32" t="s">
+    <row r="35" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="13" t="s">
@@ -3279,7 +3276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>116</v>
       </c>
@@ -3326,14 +3323,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+    <row r="37" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="H37" s="13" t="s">
         <v>102</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>121</v>
       </c>
@@ -3414,26 +3425,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="32" t="s">
+    <row r="39" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="13" t="s">
@@ -3467,7 +3478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>126</v>
       </c>
@@ -3520,23 +3531,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="32" t="s">
+    <row r="41" spans="1:17" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -3573,7 +3584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>130</v>
       </c>
@@ -3624,26 +3635,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="32" t="s">
+    <row r="43" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="13" t="s">
@@ -3677,7 +3688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>131</v>
       </c>
@@ -3726,26 +3737,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="32" t="s">
+    <row r="45" spans="1:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="13" t="s">
@@ -3779,7 +3790,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
@@ -3830,26 +3841,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="32" t="s">
+    <row r="47" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="13" t="s">
@@ -3883,7 +3894,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>138</v>
       </c>
@@ -3936,26 +3947,26 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="32" t="s">
+    <row r="49" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="13" t="s">
@@ -3989,7 +4000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
@@ -4042,7 +4053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>34</v>
       </c>
@@ -4095,26 +4106,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="32" t="s">
+    <row r="52" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H52" s="13" t="s">
@@ -4148,7 +4159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>34</v>
       </c>
@@ -4254,26 +4265,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="32" t="s">
+    <row r="55" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="13" t="s">
@@ -4307,7 +4318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>157</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>34</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>34</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>34</v>
       </c>
@@ -4515,26 +4526,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="32" t="s">
+    <row r="60" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H60" s="13" t="s">
@@ -4568,7 +4579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>165</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>34</v>
       </c>
@@ -4674,26 +4685,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="32" t="s">
+    <row r="63" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="13" t="s">
@@ -4727,7 +4738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>170</v>
       </c>
@@ -4780,26 +4791,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="32" t="s">
+    <row r="65" spans="1:17" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="13" t="s">
@@ -4833,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>174</v>
       </c>
@@ -4884,26 +4895,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="32" t="s">
+    <row r="67" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H67" s="13" t="s">
@@ -4937,7 +4948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>178</v>
       </c>
@@ -4986,23 +4997,23 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="32" t="s">
+    <row r="69" spans="1:17" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>34</v>
       </c>
       <c r="G69" s="12" t="s">
@@ -5039,7 +5050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>183</v>
       </c>
@@ -5086,26 +5097,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="32" t="s">
+    <row r="71" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="13" t="s">
@@ -5139,7 +5150,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>185</v>
       </c>
@@ -5190,26 +5201,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" s="32" t="s">
+    <row r="73" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="17" t="s">
@@ -5243,7 +5254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>190</v>
       </c>
@@ -5294,26 +5305,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" s="32" t="s">
+    <row r="75" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H75" s="23" t="s">
@@ -5347,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="156.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>195</v>
       </c>
@@ -5398,26 +5409,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="156.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" s="32" t="s">
+    <row r="77" spans="1:17" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="25" t="s">
@@ -5451,7 +5462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>198</v>
       </c>
@@ -5502,26 +5513,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="32" t="s">
+    <row r="79" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H79" s="13" t="s">
@@ -5555,7 +5566,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>203</v>
       </c>
@@ -5608,26 +5619,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" s="32" t="s">
+    <row r="81" spans="1:17" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H81" s="13" t="s">
@@ -5661,7 +5672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>206</v>
       </c>
@@ -5712,26 +5723,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="32" t="s">
+    <row r="83" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="13" t="s">
@@ -5765,7 +5776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>212</v>
       </c>
@@ -5812,26 +5823,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="32" t="s">
+    <row r="85" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H85" s="13" t="s">
@@ -5865,7 +5876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>218</v>
       </c>
@@ -5918,26 +5929,26 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="32" t="s">
+    <row r="87" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="13" t="s">
@@ -5971,7 +5982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>222</v>
       </c>
@@ -6022,26 +6033,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" s="32" t="s">
+    <row r="89" spans="1:17" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H89" s="13" t="s">
@@ -6075,7 +6086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>227</v>
       </c>
@@ -6128,26 +6139,26 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" s="32" t="s">
+    <row r="91" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="13" t="s">
@@ -6181,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>231</v>
       </c>
@@ -6232,26 +6243,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" s="32" t="s">
+    <row r="93" spans="1:17" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="13" t="s">
@@ -6285,7 +6296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>235</v>
       </c>
@@ -6338,26 +6349,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="32" t="s">
+    <row r="95" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H95" s="13" t="s">
@@ -6391,7 +6402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>239</v>
       </c>
@@ -6399,7 +6410,7 @@
       <c r="C96" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="33">
         <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -6442,7 +6453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>34</v>
       </c>
@@ -6495,26 +6506,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" s="32" t="s">
+    <row r="98" spans="1:17" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="13" t="s">
@@ -6548,7 +6559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>246</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>34</v>
       </c>
@@ -6652,26 +6663,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" s="32" t="s">
+    <row r="101" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="13" t="s">
@@ -6705,7 +6716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>248</v>
       </c>
@@ -6758,26 +6769,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="32" t="s">
+    <row r="103" spans="1:17" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="13" t="s">
@@ -6811,7 +6822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>253</v>
       </c>
@@ -6862,7 +6873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>34</v>
       </c>
@@ -6915,7 +6926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>34</v>
       </c>
@@ -6968,26 +6979,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" s="32" t="s">
+    <row r="107" spans="1:17" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H107" s="13" t="s">
@@ -7021,7 +7032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -7072,26 +7083,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="32" t="s">
+    <row r="109" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H109" s="13" t="s">
@@ -7125,7 +7136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>261</v>
       </c>
@@ -7174,26 +7185,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" s="32" t="s">
+    <row r="111" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H111" s="13" t="s">
@@ -7227,7 +7238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>264</v>
       </c>
@@ -7280,26 +7291,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" s="32" t="s">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H113" s="13" t="s">
@@ -7333,7 +7344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>266</v>
       </c>
@@ -7380,26 +7391,26 @@
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F115" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="32" t="s">
+    <row r="115" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H115" s="13" t="s">
@@ -7433,7 +7444,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>269</v>
       </c>
@@ -7480,26 +7491,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" s="32" t="s">
+    <row r="117" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H117" s="13" t="s">
@@ -7533,7 +7544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>270</v>
       </c>
@@ -7582,26 +7593,26 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="32" t="s">
+    <row r="119" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H119" s="13" t="s">
@@ -7635,7 +7646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>273</v>
       </c>
@@ -7684,26 +7695,26 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F121" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="32" t="s">
+    <row r="121" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H121" s="13" t="s">
@@ -7737,7 +7748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>277</v>
       </c>
@@ -7788,26 +7799,26 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F123" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="32" t="s">
+    <row r="123" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H123" s="13" t="s">
@@ -7841,7 +7852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>281</v>
       </c>
@@ -7890,26 +7901,26 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="32" t="s">
+    <row r="125" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H125" s="13" t="s">
@@ -7943,7 +7954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>285</v>
       </c>
@@ -7992,56 +8003,56 @@
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H127" s="31" t="s">
+    <row r="127" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P127" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q127" s="32" t="s">
+      <c r="I127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="P127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127" s="31" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/human/lsr1charactwoanhedonia.xlsx
+++ b/data/human/lsr1charactwoanhedonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfrie\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BEF3DF-4284-4CAB-ABE6-FCF32FCDA336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA6BF6-1BF7-45DE-8CFC-823F05459991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2265" yWindow="240" windowWidth="24690" windowHeight="15690" xr2:uid="{9BA4CE3C-F350-459A-870F-023417E42010}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="288">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D686BC1-6B36-48F9-AF35-6AC090E66918}">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,13 +1676,27 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
